--- a/Data_Transformation.xlsx
+++ b/Data_Transformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vmuccion/Documents/ManuscriptOngoing/A@A_SolutionsPaper/Manuscript/BlindSubmission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2602611-C011-1346-A831-41AEB09FF22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE6DD60-5A6C-7D4A-B451-26232DE315D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11180" yWindow="460" windowWidth="27220" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="460" windowWidth="27220" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EvaluationTransformations" sheetId="1" r:id="rId1"/>
@@ -33,270 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={D65C2B8E-9CFF-8241-A28B-277C3BA61EAC}</author>
-    <author>tc={DA815A5E-7854-2149-BE95-D2FE10774518}</author>
-    <author>tc={09E17B62-89B0-5445-8848-7DA9BBF44253}</author>
-    <author>tc={398B42AE-8D02-8C45-8C14-F4F254561D64}</author>
-    <author>tc={0899539E-3248-F443-8E24-4A29E73BF725}</author>
-    <author>tc={18013412-54AF-874D-BA40-92CD9160F708}</author>
-    <author>tc={3B8DD7AB-9F16-AD4C-A564-24DE7A8F79ED}</author>
-    <author>tc={C361B32D-5111-144A-A2B4-5EE63AF5C27E}</author>
-    <author>tc={0AFD3F7B-EAB1-C64C-B58E-A7AEE145B21E}</author>
-    <author>tc={D37EBD29-02A0-9E45-B836-FE9BF17F95A0}</author>
-    <author>tc={FD1AD774-E5E7-E149-BAEB-2F79A7CD7440}</author>
-    <author>tc={CAC954F0-2FD8-334B-8F08-98D51FF61CD5}</author>
-    <author>tc={208B2D9E-582B-6141-A726-9154B04C81B6}</author>
-    <author>tc={5227F8CA-4091-6045-9E7B-953259544F5F}</author>
-    <author>tc={DB02541B-5DD7-D64C-B54F-B07FA0BBB2BC}</author>
-    <author>tc={38DED172-9C51-8042-8D60-6E996D797A18}</author>
-    <author>tc={0285C8B3-3D00-A344-BDB4-4D4F4A5E1C89}</author>
-    <author>tc={4060F5E4-AD78-3B42-BB5E-A9B2DB237675}</author>
-    <author>tc={179928F8-9DBF-3C49-84A0-10D498B33A77}</author>
-    <author>tc={220B21CF-C078-104E-8A6D-9D2497035485}</author>
-    <author>tc={DDD434CF-A8F3-714D-93D6-A78AF73D09BE}</author>
-    <author>tc={44C0E002-1E57-0B45-979E-D2B1F918C27C}</author>
-    <author>tc={434F0987-53A2-C84A-B389-BA57441B5767}</author>
-    <author>tc={F6E0E382-2BCD-9940-98B4-6852F58D3670}</author>
-    <author>tc={D860A8B3-9259-7D4D-8CD4-45D7F92F3916}</author>
-    <author>tc={CD3ACE6D-163F-CE46-96CB-F0E56268D8A3}</author>
-    <author>tc={E8AD49BF-973D-B34E-9723-526DA2C00086}</author>
-    <author>tc={8DBFF924-6B71-554E-A8E0-1C5089666DEC}</author>
-  </authors>
-  <commentList>
-    <comment ref="AD11" authorId="0" shapeId="0" xr:uid="{D65C2B8E-9CFF-8241-A28B-277C3BA61EAC}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Evidence is there but very skim…so not sure we can say 1</t>
-      </text>
-    </comment>
-    <comment ref="AH11" authorId="1" shapeId="0" xr:uid="{DA815A5E-7854-2149-BE95-D2FE10774518}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Description very brief not sure it is really an innovation</t>
-      </text>
-    </comment>
-    <comment ref="AN11" authorId="2" shapeId="0" xr:uid="{09E17B62-89B0-5445-8848-7DA9BBF44253}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Very short not convinced. Needs to check
-</t>
-      </text>
-    </comment>
-    <comment ref="BA11" authorId="3" shapeId="0" xr:uid="{398B42AE-8D02-8C45-8C14-F4F254561D64}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Explanation is not convincing</t>
-      </text>
-    </comment>
-    <comment ref="BC11" authorId="4" shapeId="0" xr:uid="{0899539E-3248-F443-8E24-4A29E73BF725}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Innovation not convincing</t>
-      </text>
-    </comment>
-    <comment ref="BO11" authorId="5" shapeId="0" xr:uid="{18013412-54AF-874D-BA40-92CD9160F708}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Not convinced about where the innovation really is…</t>
-      </text>
-    </comment>
-    <comment ref="CJ11" authorId="6" shapeId="0" xr:uid="{3B8DD7AB-9F16-AD4C-A564-24DE7A8F79ED}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Not convinced where the innovation is…</t>
-      </text>
-    </comment>
-    <comment ref="W15" authorId="7" shapeId="0" xr:uid="{C361B32D-5111-144A-A2B4-5EE63AF5C27E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Very short description. Can’t really say these are barriers…</t>
-      </text>
-    </comment>
-    <comment ref="AT15" authorId="8" shapeId="0" xr:uid="{0AFD3F7B-EAB1-C64C-B58E-A7AEE145B21E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Barriers not very clear</t>
-      </text>
-    </comment>
-    <comment ref="CK15" authorId="9" shapeId="0" xr:uid="{D37EBD29-02A0-9E45-B836-FE9BF17F95A0}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Barriers not listed properly and not clear if overcome. I would say is 0</t>
-      </text>
-    </comment>
-    <comment ref="W16" authorId="10" shapeId="0" xr:uid="{FD1AD774-E5E7-E149-BAEB-2F79A7CD7440}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Recognise but neither planned nor happened</t>
-      </text>
-    </comment>
-    <comment ref="AW16" authorId="11" shapeId="0" xr:uid="{CAC954F0-2FD8-334B-8F08-98D51FF61CD5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    project activities are also expected to be mainstreamed into the existing plans of the relevant departments. 
-Does it count as planned?</t>
-      </text>
-    </comment>
-    <comment ref="CA16" authorId="12" shapeId="0" xr:uid="{208B2D9E-582B-6141-A726-9154B04C81B6}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Check section in the description</t>
-      </text>
-    </comment>
-    <comment ref="CD16" authorId="13" shapeId="0" xr:uid="{5227F8CA-4091-6045-9E7B-953259544F5F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Check with Simon</t>
-      </text>
-    </comment>
-    <comment ref="CJ16" authorId="14" shapeId="0" xr:uid="{DB02541B-5DD7-D64C-B54F-B07FA0BBB2BC}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Check with Simon</t>
-      </text>
-    </comment>
-    <comment ref="AE17" authorId="15" shapeId="0" xr:uid="{38DED172-9C51-8042-8D60-6E996D797A18}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Replication seemed to be one of the goal of the project but there is no clear indication as of now whether or not replication is panned and definitely it has not occurred.</t>
-      </text>
-    </comment>
-    <comment ref="AQ17" authorId="16" shapeId="0" xr:uid="{0285C8B3-3D00-A344-BDB4-4D4F4A5E1C89}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Only expected or potential replication based on the project so far. Is this enough?</t>
-      </text>
-    </comment>
-    <comment ref="CA17" authorId="17" shapeId="0" xr:uid="{4060F5E4-AD78-3B42-BB5E-A9B2DB237675}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Check section in the description</t>
-      </text>
-    </comment>
-    <comment ref="CJ17" authorId="18" shapeId="0" xr:uid="{179928F8-9DBF-3C49-84A0-10D498B33A77}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Check with Simon</t>
-      </text>
-    </comment>
-    <comment ref="Z19" authorId="19" shapeId="0" xr:uid="{220B21CF-C078-104E-8A6D-9D2497035485}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Difficult to say whether the stakeholders were really involved in the design as it seems a more top down though there are mentions of stakehold</t>
-      </text>
-    </comment>
-    <comment ref="AP19" authorId="20" shapeId="0" xr:uid="{DDD434CF-A8F3-714D-93D6-A78AF73D09BE}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Its quite bottom up not clear but tendentially could be 1</t>
-      </text>
-    </comment>
-    <comment ref="BL19" authorId="21" shapeId="0" xr:uid="{44C0E002-1E57-0B45-979E-D2B1F918C27C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Maybe local students but not clear..</t>
-      </text>
-    </comment>
-    <comment ref="BY19" authorId="22" shapeId="0" xr:uid="{434F0987-53A2-C84A-B389-BA57441B5767}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    End users and beneficiaries seem not to have been involved in the planning and implementation phase</t>
-      </text>
-    </comment>
-    <comment ref="BZ19" authorId="23" shapeId="0" xr:uid="{F6E0E382-2BCD-9940-98B4-6852F58D3670}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    It is written that the aim will be to integrate diverse stakeholder therefore it seems this has to happened in the design/implementation phase</t>
-      </text>
-    </comment>
-    <comment ref="AK20" authorId="24" shapeId="0" xr:uid="{D860A8B3-9259-7D4D-8CD4-45D7F92F3916}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Not convinced by the long term maintenance but probably there is o really need…need to read more the description</t>
-      </text>
-    </comment>
-    <comment ref="BK20" authorId="25" shapeId="0" xr:uid="{CD3ACE6D-163F-CE46-96CB-F0E56268D8A3}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Explanation not convincing check</t>
-      </text>
-    </comment>
-    <comment ref="AP21" authorId="26" shapeId="0" xr:uid="{E8AD49BF-973D-B34E-9723-526DA2C00086}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Unclear
-</t>
-      </text>
-    </comment>
-    <comment ref="CB21" authorId="27" shapeId="0" xr:uid="{8DBFF924-6B71-554E-A8E0-1C5089666DEC}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    I am not convinced how this will happen and it is not well explained</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,12 +459,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -853,9 +583,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2041,57 +1768,11 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>85</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>47656</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>129887</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3EAC715-1229-4645-B36D-25D834BECFC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="70632205" y="12313227"/>
-          <a:ext cx="5935837" cy="3368387"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Veruska Muccione" id="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" userId="S::veruska.muccione@uzh.ch::419c0d6d-3959-4166-b0bb-915e6cd0d8eb" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2355,106 +2036,14 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AD11" dT="2023-07-06T10:54:54.39" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{D65C2B8E-9CFF-8241-A28B-277C3BA61EAC}">
-    <text>Evidence is there but very skim…so not sure we can say 1</text>
-  </threadedComment>
-  <threadedComment ref="AH11" dT="2023-07-06T12:22:23.50" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{DA815A5E-7854-2149-BE95-D2FE10774518}">
-    <text>Description very brief not sure it is really an innovation</text>
-  </threadedComment>
-  <threadedComment ref="AN11" dT="2023-07-06T13:06:16.45" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{09E17B62-89B0-5445-8848-7DA9BBF44253}">
-    <text xml:space="preserve">Very short not convinced. Needs to check
-</text>
-  </threadedComment>
-  <threadedComment ref="BA11" dT="2023-07-06T14:12:57.55" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{398B42AE-8D02-8C45-8C14-F4F254561D64}">
-    <text>Explanation is not convincing</text>
-  </threadedComment>
-  <threadedComment ref="BC11" dT="2023-07-06T14:20:28.28" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{0899539E-3248-F443-8E24-4A29E73BF725}">
-    <text>Innovation not convincing</text>
-  </threadedComment>
-  <threadedComment ref="BO11" dT="2023-07-06T15:06:49.44" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{18013412-54AF-874D-BA40-92CD9160F708}">
-    <text>Not convinced about where the innovation really is…</text>
-  </threadedComment>
-  <threadedComment ref="CJ11" dT="2023-07-07T14:18:44.21" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{3B8DD7AB-9F16-AD4C-A564-24DE7A8F79ED}">
-    <text>Not convinced where the innovation is…</text>
-  </threadedComment>
-  <threadedComment ref="W15" dT="2023-07-06T09:25:23.17" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{C361B32D-5111-144A-A2B4-5EE63AF5C27E}">
-    <text>Very short description. Can’t really say these are barriers…</text>
-  </threadedComment>
-  <threadedComment ref="AT15" dT="2023-07-06T13:30:42.56" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{0AFD3F7B-EAB1-C64C-B58E-A7AEE145B21E}">
-    <text>Barriers not very clear</text>
-  </threadedComment>
-  <threadedComment ref="CK15" dT="2023-07-07T14:24:25.23" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{D37EBD29-02A0-9E45-B836-FE9BF17F95A0}">
-    <text>Barriers not listed properly and not clear if overcome. I would say is 0</text>
-  </threadedComment>
-  <threadedComment ref="W16" dT="2023-07-06T09:27:05.39" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{FD1AD774-E5E7-E149-BAEB-2F79A7CD7440}">
-    <text>Recognise but neither planned nor happened</text>
-  </threadedComment>
-  <threadedComment ref="AW16" dT="2023-07-06T13:56:49.75" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{CAC954F0-2FD8-334B-8F08-98D51FF61CD5}">
-    <text>project activities are also expected to be mainstreamed into the existing plans of the relevant departments. 
-Does it count as planned?</text>
-  </threadedComment>
-  <threadedComment ref="CA16" dT="2023-07-07T13:21:03.04" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{208B2D9E-582B-6141-A726-9154B04C81B6}">
-    <text>Check section in the description</text>
-  </threadedComment>
-  <threadedComment ref="CD16" dT="2023-07-07T13:31:28.95" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{5227F8CA-4091-6045-9E7B-953259544F5F}">
-    <text>Check with Simon</text>
-  </threadedComment>
-  <threadedComment ref="CJ16" dT="2023-07-07T14:20:07.10" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{DB02541B-5DD7-D64C-B54F-B07FA0BBB2BC}">
-    <text>Check with Simon</text>
-  </threadedComment>
-  <threadedComment ref="AE17" dT="2023-07-06T12:12:52.40" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{38DED172-9C51-8042-8D60-6E996D797A18}">
-    <text>Replication seemed to be one of the goal of the project but there is no clear indication as of now whether or not replication is panned and definitely it has not occurred.</text>
-  </threadedComment>
-  <threadedComment ref="AQ17" dT="2023-07-06T13:19:18.72" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{0285C8B3-3D00-A344-BDB4-4D4F4A5E1C89}">
-    <text>Only expected or potential replication based on the project so far. Is this enough?</text>
-  </threadedComment>
-  <threadedComment ref="CA17" dT="2023-07-07T13:21:14.42" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{4060F5E4-AD78-3B42-BB5E-A9B2DB237675}">
-    <text>Check section in the description</text>
-  </threadedComment>
-  <threadedComment ref="CJ17" dT="2023-07-07T14:19:57.18" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{179928F8-9DBF-3C49-84A0-10D498B33A77}">
-    <text>Check with Simon</text>
-  </threadedComment>
-  <threadedComment ref="Z19" dT="2023-07-06T09:55:25.84" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{220B21CF-C078-104E-8A6D-9D2497035485}">
-    <text>Difficult to say whether the stakeholders were really involved in the design as it seems a more top down though there are mentions of stakehold</text>
-  </threadedComment>
-  <threadedComment ref="AP19" dT="2023-07-06T13:15:02.59" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{DDD434CF-A8F3-714D-93D6-A78AF73D09BE}">
-    <text>Its quite bottom up not clear but tendentially could be 1</text>
-  </threadedComment>
-  <threadedComment ref="BL19" dT="2023-07-06T14:58:06.10" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{44C0E002-1E57-0B45-979E-D2B1F918C27C}">
-    <text>Maybe local students but not clear..</text>
-  </threadedComment>
-  <threadedComment ref="BY19" dT="2023-07-07T13:13:56.58" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{434F0987-53A2-C84A-B389-BA57441B5767}">
-    <text>End users and beneficiaries seem not to have been involved in the planning and implementation phase</text>
-  </threadedComment>
-  <threadedComment ref="BZ19" dT="2023-07-07T13:17:59.78" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{F6E0E382-2BCD-9940-98B4-6852F58D3670}">
-    <text>It is written that the aim will be to integrate diverse stakeholder therefore it seems this has to happened in the design/implementation phase</text>
-  </threadedComment>
-  <threadedComment ref="AK20" dT="2023-07-06T12:35:14.71" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{D860A8B3-9259-7D4D-8CD4-45D7F92F3916}">
-    <text>Not convinced by the long term maintenance but probably there is o really need…need to read more the description</text>
-  </threadedComment>
-  <threadedComment ref="BK20" dT="2023-07-06T14:55:01.67" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{CD3ACE6D-163F-CE46-96CB-F0E56268D8A3}">
-    <text>Explanation not convincing check</text>
-  </threadedComment>
-  <threadedComment ref="AP21" dT="2023-07-06T13:16:01.24" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{E8AD49BF-973D-B34E-9723-526DA2C00086}">
-    <text xml:space="preserve">Unclear
-</text>
-  </threadedComment>
-  <threadedComment ref="CB21" dT="2023-07-07T13:25:56.90" personId="{B9617466-3C2F-FC4C-8DF1-088862C7447C}" id="{8DBFF924-6B71-554E-A8E0-1C5089666DEC}">
-    <text>I am not convinced how this will happen and it is not well explained</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:CO405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5480" activePane="topRight"/>
-      <selection activeCell="C30" sqref="C30"/>
-      <selection pane="topRight" activeCell="CO12" sqref="CO12"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5480" topLeftCell="E1" activePane="topRight"/>
+      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2462,7 +2051,7 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="6" width="38.6640625" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" style="30" customWidth="1"/>
     <col min="8" max="8" width="26.33203125" customWidth="1"/>
     <col min="9" max="9" width="24.1640625" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" customWidth="1"/>
@@ -2596,7 +2185,7 @@
       <c r="L5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="23" t="s">
         <v>33</v>
       </c>
       <c r="N5" s="23" t="s">
@@ -2838,10 +2427,10 @@
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="K6" s="21"/>
@@ -2872,22 +2461,22 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="25">
-        <v>1</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25">
-        <v>1</v>
-      </c>
-      <c r="G7" s="25">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28">
-        <v>1</v>
-      </c>
-      <c r="I7" s="25">
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="24">
+        <v>1</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1</v>
+      </c>
+      <c r="H7" s="27">
+        <v>1</v>
+      </c>
+      <c r="I7" s="24">
         <v>1</v>
       </c>
       <c r="J7">
@@ -3149,22 +2738,22 @@
       <c r="C8" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="25">
-        <v>1</v>
-      </c>
-      <c r="E8" s="25">
-        <v>1</v>
-      </c>
-      <c r="F8" s="25">
-        <v>1</v>
-      </c>
-      <c r="G8" s="25">
-        <v>1</v>
-      </c>
-      <c r="H8" s="28">
-        <v>1</v>
-      </c>
-      <c r="I8" s="25">
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1</v>
+      </c>
+      <c r="H8" s="27">
+        <v>1</v>
+      </c>
+      <c r="I8" s="24">
         <v>1</v>
       </c>
       <c r="J8">
@@ -3426,22 +3015,22 @@
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="25">
-        <v>1</v>
-      </c>
-      <c r="E9" s="25">
-        <v>1</v>
-      </c>
-      <c r="F9" s="25">
-        <v>1</v>
-      </c>
-      <c r="G9" s="25">
-        <v>1</v>
-      </c>
-      <c r="H9" s="28">
-        <v>1</v>
-      </c>
-      <c r="I9" s="25">
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24">
+        <v>1</v>
+      </c>
+      <c r="H9" s="27">
+        <v>1</v>
+      </c>
+      <c r="I9" s="24">
         <v>0</v>
       </c>
       <c r="J9">
@@ -3693,11 +3282,11 @@
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="29"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="16"/>
       <c r="J10"/>
       <c r="CO10"/>
@@ -3712,19 +3301,19 @@
       <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="25">
-        <v>1</v>
-      </c>
-      <c r="E11" s="25">
-        <v>1</v>
-      </c>
-      <c r="F11" s="25">
-        <v>1</v>
-      </c>
-      <c r="G11" s="25">
-        <v>1</v>
-      </c>
-      <c r="H11" s="28">
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1</v>
+      </c>
+      <c r="H11" s="27">
         <v>1</v>
       </c>
       <c r="I11" s="6">
@@ -3986,22 +3575,22 @@
       <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="25">
-        <v>0</v>
-      </c>
-      <c r="E12" s="25">
-        <v>1</v>
-      </c>
-      <c r="F12" s="25">
-        <v>1</v>
-      </c>
-      <c r="G12" s="25">
-        <v>1</v>
-      </c>
-      <c r="H12" s="28">
-        <v>1</v>
-      </c>
-      <c r="I12" s="25">
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="F12" s="24">
+        <v>1</v>
+      </c>
+      <c r="G12" s="24">
+        <v>1</v>
+      </c>
+      <c r="H12" s="27">
+        <v>1</v>
+      </c>
+      <c r="I12" s="24">
         <v>1</v>
       </c>
       <c r="J12">
@@ -4263,22 +3852,22 @@
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="25">
-        <v>1</v>
-      </c>
-      <c r="E13" s="25">
-        <v>1</v>
-      </c>
-      <c r="F13" s="25">
-        <v>1</v>
-      </c>
-      <c r="G13" s="25">
-        <v>1</v>
-      </c>
-      <c r="H13" s="28">
-        <v>1</v>
-      </c>
-      <c r="I13" s="25">
+      <c r="D13" s="24">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24">
+        <v>1</v>
+      </c>
+      <c r="G13" s="24">
+        <v>1</v>
+      </c>
+      <c r="H13" s="27">
+        <v>1</v>
+      </c>
+      <c r="I13" s="24">
         <v>1</v>
       </c>
       <c r="J13">
@@ -4536,12 +4125,12 @@
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="26"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="26"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="25"/>
       <c r="J14"/>
       <c r="CO14"/>
     </row>
@@ -4555,22 +4144,22 @@
       <c r="C15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="25">
-        <v>1</v>
-      </c>
-      <c r="E15" s="25">
-        <v>1</v>
-      </c>
-      <c r="F15" s="25">
-        <v>0</v>
-      </c>
-      <c r="G15" s="25">
-        <v>0</v>
-      </c>
-      <c r="H15" s="28">
-        <v>0</v>
-      </c>
-      <c r="I15" s="25">
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24">
+        <v>1</v>
+      </c>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+      <c r="H15" s="27">
+        <v>0</v>
+      </c>
+      <c r="I15" s="24">
         <v>0</v>
       </c>
       <c r="J15">
@@ -4832,22 +4421,22 @@
       <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="25">
-        <v>1</v>
-      </c>
-      <c r="E16" s="25">
-        <v>0</v>
-      </c>
-      <c r="F16" s="25">
-        <v>1</v>
-      </c>
-      <c r="G16" s="25">
-        <v>0</v>
-      </c>
-      <c r="H16" s="28">
-        <v>0</v>
-      </c>
-      <c r="I16" s="25">
+      <c r="D16" s="24">
+        <v>1</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="F16" s="24">
+        <v>1</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0</v>
+      </c>
+      <c r="H16" s="27">
+        <v>0</v>
+      </c>
+      <c r="I16" s="24">
         <v>0</v>
       </c>
       <c r="J16">
@@ -5109,22 +4698,22 @@
       <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="25">
-        <v>1</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0</v>
-      </c>
-      <c r="F17" s="25">
-        <v>1</v>
-      </c>
-      <c r="G17" s="25">
-        <v>0</v>
-      </c>
-      <c r="H17" s="28">
-        <v>0</v>
-      </c>
-      <c r="I17" s="25">
+      <c r="D17" s="24">
+        <v>1</v>
+      </c>
+      <c r="E17" s="24">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24">
+        <v>1</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="27">
+        <v>0</v>
+      </c>
+      <c r="I17" s="24">
         <v>0</v>
       </c>
       <c r="J17">
@@ -5382,13 +4971,13 @@
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
       <c r="CO18"/>
     </row>
     <row r="19" spans="1:93" ht="48" x14ac:dyDescent="0.2">
@@ -5401,22 +4990,22 @@
       <c r="C19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="25">
-        <v>1</v>
-      </c>
-      <c r="E19" s="25">
-        <v>0</v>
-      </c>
-      <c r="F19" s="25">
-        <v>1</v>
-      </c>
-      <c r="G19" s="25">
-        <v>1</v>
-      </c>
-      <c r="H19" s="28">
-        <v>1</v>
-      </c>
-      <c r="I19" s="25">
+      <c r="D19" s="24">
+        <v>1</v>
+      </c>
+      <c r="E19" s="24">
+        <v>0</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1</v>
+      </c>
+      <c r="H19" s="27">
+        <v>1</v>
+      </c>
+      <c r="I19" s="24">
         <v>1</v>
       </c>
       <c r="J19">
@@ -5678,22 +5267,22 @@
       <c r="C20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="25">
-        <v>1</v>
-      </c>
-      <c r="E20" s="25">
-        <v>0</v>
-      </c>
-      <c r="F20" s="25">
-        <v>1</v>
-      </c>
-      <c r="G20" s="25">
-        <v>1</v>
-      </c>
-      <c r="H20" s="28">
-        <v>1</v>
-      </c>
-      <c r="I20" s="25">
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1</v>
+      </c>
+      <c r="G20" s="24">
+        <v>1</v>
+      </c>
+      <c r="H20" s="27">
+        <v>1</v>
+      </c>
+      <c r="I20" s="24">
         <v>0</v>
       </c>
       <c r="J20">
@@ -5955,22 +5544,22 @@
       <c r="C21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="27">
-        <v>1</v>
-      </c>
-      <c r="E21" s="27">
-        <v>1</v>
-      </c>
-      <c r="F21" s="27">
-        <v>1</v>
-      </c>
-      <c r="G21" s="27">
-        <v>1</v>
-      </c>
-      <c r="H21" s="30">
-        <v>1</v>
-      </c>
-      <c r="I21" s="27">
+      <c r="D21" s="26">
+        <v>1</v>
+      </c>
+      <c r="E21" s="26">
+        <v>1</v>
+      </c>
+      <c r="F21" s="26">
+        <v>1</v>
+      </c>
+      <c r="G21" s="26">
+        <v>1</v>
+      </c>
+      <c r="H21" s="29">
+        <v>1</v>
+      </c>
+      <c r="I21" s="26">
         <v>1</v>
       </c>
       <c r="J21" s="10">
@@ -6233,14 +5822,14 @@
     </row>
     <row r="23" spans="1:93" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="33"/>
+      <c r="C23" s="32"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23" s="31"/>
+      <c r="G23" s="30"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -9758,6 +9347,5 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>